--- a/data/Реквизиты АСТ.xlsx
+++ b/data/Реквизиты АСТ.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -60,9 +60,6 @@
     <t>Генеральный директор</t>
   </si>
   <si>
-    <t>Гидион Александр Федорович</t>
-  </si>
-  <si>
     <t>Главный бухгалтер</t>
   </si>
   <si>
@@ -87,13 +84,7 @@
     <t>Номер счета</t>
   </si>
   <si>
-    <t>407 028 109 000 000 186 30</t>
-  </si>
-  <si>
     <t>БИК</t>
-  </si>
-  <si>
-    <t>044 525 823</t>
   </si>
   <si>
     <t>Банк</t>
@@ -136,6 +127,15 @@
 8 (495) 664-23-00 доб.101
 8 (916) 154-31-14
 svi1955@mail.ru</t>
+  </si>
+  <si>
+    <t>044525823</t>
+  </si>
+  <si>
+    <t>40702810900000018630</t>
+  </si>
+  <si>
+    <t>Бут Сергей Михайлович</t>
   </si>
 </sst>
 </file>
@@ -266,13 +266,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -580,73 +580,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="6"/>
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75">
@@ -702,7 +702,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75">
@@ -710,38 +710,38 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="63">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75">
-      <c r="A21" s="7" t="s">
-        <v>34</v>
+      <c r="A21" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75">
-      <c r="A22" s="7" t="s">
-        <v>35</v>
+      <c r="A22" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75">
-      <c r="A23" s="7" t="s">
-        <v>36</v>
+      <c r="A23" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
